--- a/biology/Botanique/Trisetum_flavescens/Trisetum_flavescens.xlsx
+++ b/biology/Botanique/Trisetum_flavescens/Trisetum_flavescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trisetum flavescens, l'avoine dorée ou avoine jaunâtre, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Europe et du bassin méditerranéen, mais présente également en Amérique du Nord et du Sud et en Australasie où elle a été introduite.
 C'est une plante herbacée vivace à inflorescence en panicule d'épillets, de 80 cm de haut environ.
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trisetum flavescens est une plante herbacée vivace cespiteuse, poussant en touffes épaisses, pouvant atteindre 60 à 80 cm de haut, et parfois dépasser 1 m.
 Les tiges, dressées ou géniculées ascendantes, comptent de 3 à 5 nœuds. Les feuilles ont un limbe plat, de 3,5 à 18 cm de long, à la surface scabreuse, glabre ou pubescente, et une ligule frangée, courte (de 0,3 à 1.1 mm de haut).
-L'inflorescence est une panicule étroite, elliptique, de 6,5 à 15 cm de long, de couleur jaune verdâtre à pourpre virant au jaune d'or en vieillissant[2],[3],[4].
+L'inflorescence est une panicule étroite, elliptique, de 6,5 à 15 cm de long, de couleur jaune verdâtre à pourpre virant au jaune d'or en vieillissant.
 Les épillets, de forme oblongues, comprimés latéralement, ont de 5 à 8 mm de long. Ils sont pédicellés et comprennent de 2 à 4 fleurons fertile et des fleurons réduits vers l'apex. Ils sont insérés entre deux glumes inégales, non aristées, plus fines que la lemme fertile, la glume supérieure, membraneuse, présente trois nervures.
 Les fleurons fertiles ont une lemme longue de 4,4 à 6,3 mm, à cinq nervures, à l'apex entier ou denté, munie d'une arête dorsale de 5 à 9 mm de long avec une colonne torsadée.
-Chaque fleuron compte trois anthères[4].
+Chaque fleuron compte trois anthères.
 </t>
         </is>
       </c>
@@ -548,12 +562,14 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trisetum flavescens produit des quantités relativement importantes de cholécalciférol, ou vitamine D3. Des essais sur des rats et des cailles du Japon on montré une activité de type vitamine D équivalente à 3 et 4 UI par gramme de matière sèche.
 Le cholécaciférol est présent principalement dans les feuilles jeunes et beaucoup moins dans les autres organes de la plante (tiges, racines, fleurs et graines). Le taux de cholécalciférol dans la plante  est fonction de l'exposition de celle-ci aux rayons ultraviolets
-[5].
-Cette espèce est sensible au virus de la mosaïque de l'avoine dorée (YOgMV, yellow oatgrass mosaic virus), appartenant au genre Tritimovirus[6].
+.
+Cette espèce est sensible au virus de la mosaïque de l'avoine dorée (YOgMV, yellow oatgrass mosaic virus), appartenant au genre Tritimovirus.
 </t>
         </is>
       </c>
@@ -582,10 +598,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'avoine jaunâtre est utilisée comme plante à gazon et comme plante fourragère, mais présente cependant l'inconvénient d'être toxique pour le bétail au delà d'une certaine concentration à cause de ses effets calcinogènes. La consommation de cette plante provoque en effet le syndrome de la calcinose enzootique chez le bétail qui en broute, notamment les moutons.
-En France, elle n'est  répandue et spontanée, en prairies permanentes, qu'en zone méditerranéenne, sur sol calcaire et séchant (typiquement les Préalpes). Elle ne semble pas poser de problèmes pour les moutons qui la consomment volontiers et favorisent la dissémination et la germination des graines par leur piétinement. Elle n'est pas semée et considérée d'intérêt moyen[7].
+En France, elle n'est  répandue et spontanée, en prairies permanentes, qu'en zone méditerranéenne, sur sol calcaire et séchant (typiquement les Préalpes). Elle ne semble pas poser de problèmes pour les moutons qui la consomment volontiers et favorisent la dissémination et la germination des graines par leur piétinement. Elle n'est pas semée et considérée d'intérêt moyen.
 </t>
         </is>
       </c>
@@ -616,8 +634,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (26 février 2017)[8]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 février 2017)
 Avena alpestris Host
 Avena alpestris var. purpurascens (DC.) DC.
 Avena candollei M.Serres
@@ -669,8 +692,43 @@
 Trisetum transsilvanicum Schur, pro syn.
 Trisetum varium Schur
 Trisetum varium var. violaceum Schur
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (26 février 2017)[9] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trisetum_flavescens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trisetum_flavescens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Trisetum flavescens subsp. baregense (Laffitte &amp; Miégev.) O. Bolòs, Masalles &amp; Vigo
 sous-espèce Trisetum flavescens subsp. flavescens
 sous-espèce Trisetum flavescens subsp. parvispiculatum Tzvelev
